--- a/data/trans_dic/P38_R-Urba-trans_dic.xlsx
+++ b/data/trans_dic/P38_R-Urba-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -531,7 +532,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que se ha vacunado de la gripe en la última campaña</t>
+          <t>Población que se ha vacunado de la gripe en la última campaña (tasa de respuesta: 99,63%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -572,7 +573,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>M4</t>
+          <t>M5</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -587,7 +588,7 @@
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>M4</t>
+          <t>M5</t>
         </is>
       </c>
       <c r="I2" s="3" t="inlineStr">
@@ -602,7 +603,7 @@
       </c>
       <c r="K2" s="3" t="inlineStr">
         <is>
-          <t>M4</t>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -632,47 +633,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>21,83%</t>
+          <t>21,17%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>43,41%</t>
+          <t>24,54%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>30,13%</t>
+          <t>30,27%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>22,23%</t>
+          <t>20,04%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>49,85%</t>
+          <t>21,71%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>42,07%</t>
+          <t>41,86%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>22,04%</t>
+          <t>20,55%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>46,84%</t>
+          <t>23,02%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>36,39%</t>
+          <t>36,31%</t>
         </is>
       </c>
     </row>
@@ -685,47 +686,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>17,06; 27,01</t>
+          <t>15,42; 28,9</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>36,97; 49,97</t>
+          <t>17,33; 31,68</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>24,35; 35,84</t>
+          <t>19,73; 39,28</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>18,09; 27,33</t>
+          <t>15,06; 26,22</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>44,01; 56,41</t>
+          <t>16,12; 28,05</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>35,58; 51,62</t>
+          <t>33,87; 49,27</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>18,72; 25,8</t>
+          <t>16,55; 25,01</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>42,31; 51,88</t>
+          <t>18,38; 27,46</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>31,91; 43,1</t>
+          <t>30,19; 42,64</t>
         </is>
       </c>
     </row>
@@ -742,47 +743,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>14,18%</t>
+          <t>13,96%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>29,65%</t>
+          <t>12,25%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>20,41%</t>
+          <t>27,13%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>17,97%</t>
+          <t>12,89%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>39,32%</t>
+          <t>14,73%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>31,06%</t>
+          <t>27,65%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>16,17%</t>
+          <t>13,38%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>34,5%</t>
+          <t>13,54%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>25,78%</t>
+          <t>27,39%</t>
         </is>
       </c>
     </row>
@@ -795,47 +796,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>10,05; 20,28</t>
+          <t>8,63; 21,2</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>23,15; 38,28</t>
+          <t>7,11; 19,15</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>15,17; 26,97</t>
+          <t>19,3; 35,8</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>13,41; 23,41</t>
+          <t>8,38; 19,28</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>32,88; 45,56</t>
+          <t>10,17; 21,49</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>25,74; 38,09</t>
+          <t>19,59; 41,51</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>12,87; 19,6</t>
+          <t>9,9; 17,75</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>29,74; 39,45</t>
+          <t>9,59; 18,01</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>21,76; 30,02</t>
+          <t>21,47; 34,68</t>
         </is>
       </c>
     </row>
@@ -852,47 +853,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>14,4%</t>
+          <t>11,7%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>28,85%</t>
+          <t>11,12%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>21,02%</t>
+          <t>20,79%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>18,92%</t>
+          <t>18,47%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>48,45%</t>
+          <t>23,93%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>32,78%</t>
+          <t>35,35%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>16,57%</t>
+          <t>15,07%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>38,06%</t>
+          <t>17,6%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>26,53%</t>
+          <t>27,82%</t>
         </is>
       </c>
     </row>
@@ -905,47 +906,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>6,2; 24,58</t>
+          <t>3,1; 28,74</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>15,84; 42,5</t>
+          <t>2,88; 27,65</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>11,73; 33,04</t>
+          <t>6,56; 39,68</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>11,05; 28,84</t>
+          <t>7,75; 34,67</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>35,97; 62,14</t>
+          <t>10,61; 39,24</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>22,09; 44,44</t>
+          <t>19,75; 52,06</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>10,91; 24,7</t>
+          <t>7,7; 26,89</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>29,66; 49,04</t>
+          <t>9,47; 28,3</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>18,75; 34,67</t>
+          <t>16,29; 41,21</t>
         </is>
       </c>
     </row>
@@ -962,47 +963,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>17,85%</t>
+          <t>17,16%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>36,01%</t>
+          <t>18,08%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>25,09%</t>
+          <t>27,94%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>20,2%</t>
+          <t>16,94%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>45,6%</t>
+          <t>19,14%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>36,76%</t>
+          <t>35,65%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>19,09%</t>
+          <t>17,04%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>40,93%</t>
+          <t>18,64%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>31,04%</t>
+          <t>31,89%</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1016,54 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>14,68; 21,71</t>
+          <t>13,14; 21,54</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>31,51; 40,36</t>
+          <t>14,02; 22,92</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>21,27; 29,28</t>
+          <t>21,69; 33,64</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>17,09; 23,22</t>
+          <t>13,41; 20,83</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>41,29; 49,87</t>
+          <t>15,43; 23,4</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>32,88; 44,11</t>
+          <t>30,5; 42,06</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>16,82; 21,4</t>
+          <t>14,44; 20,32</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>37,92; 44,24</t>
+          <t>15,65; 21,86</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>28,2; 35,22</t>
+          <t>27,89; 36,21</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
@@ -1072,4 +1080,799 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que se ha vacunado de la gripe en la última campaña (tasa de respuesta: 99,63%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Urbano</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>36.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>41.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>56.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>39.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>43.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>73.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>75.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>84.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>129.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>89825</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>89170</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>154630</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>101517</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>91404</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>233196</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>191342</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>180574</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>387826</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>65425; 122635</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>62992; 115144</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>100819; 200707</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>76303; 132848</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>67899; 118104</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>188704; 274460</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>154108; 232842</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>144222; 215414</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>322434; 455407</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Intermedio</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>35.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>35.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>39.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>39.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>70.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>50182</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>37741</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>111855</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>54830</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>49111</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>118222</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>105012</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>86852</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>230077</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>31014; 76210</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>21888; 58993</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>79594; 147597</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>35655; 82018</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>33919; 71668</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>83759; 177522</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>77665; 139294</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>61538; 115545</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>180361; 291272</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Rural</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>11910</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>8856</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>24825</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>18681</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>19513</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>39368</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>30590</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>28368</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>64193</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>3156; 29251</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>2291; 22012</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>7836; 47377</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>7842; 35071</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>8653; 32003</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>21988; 57968</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>15629; 54566</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>15257; 45601</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>37579; 95086</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>58.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>61.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>98.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>67.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>75.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>120.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>125.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>136.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>218.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>151918</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>135766</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>291310</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>175027</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>160027</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>390787</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>326944</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>295794</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>682096</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>116370; 190698</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>105312; 172148</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>226099; 350759</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>138594; 215239</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>129013; 195670</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>334338; 461035</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>277013; 389813</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>248437; 346896</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>596565; 774511</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>